--- a/MetodosNumericos Lab1.xlsx
+++ b/MetodosNumericos Lab1.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-22\Desktop\MetodosNum-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deis rivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43400BF1-E23D-46BE-B16F-1AD674DBDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D87844EE-830B-4F39-BD0F-7AC492DFA422}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1 Biseccion" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio 2 Biseccion" sheetId="2" r:id="rId2"/>
     <sheet name="Ejercicio 3 Biseccion" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>a)</t>
   </si>
@@ -74,17 +72,36 @@
   <si>
     <t>Iteracion</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>f(A)</t>
+  </si>
+  <si>
+    <t>f(B)</t>
+  </si>
+  <si>
+    <t>Xr</t>
+  </si>
+  <si>
+    <t>METODO DE LA REGLA FALSA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0000000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,16 +198,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -196,6 +227,14 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +255,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="168" formatCode="0.0000000%"/>
@@ -255,903 +293,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-NI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ejercicio 1 Biseccion'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ejercicio 1 Biseccion'!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3132257461547852</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2473210254684091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.16646422873509437</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45008222911347051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12173513190642282</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.7095901165207215E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6102024984659984E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2030777079283865E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.0208622343559419E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2427188968493539E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92F8-4FA5-87F5-2E6A53E9E297}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1496929375"/>
-        <c:axId val="1496929791"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1496929375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496929791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1496929791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-NI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496929375"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-NI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1169,7 +310,7 @@
             <xdr:cNvPr id="3" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811BD31F-097E-4953-BC84-1A1C845FAD86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{811BD31F-097E-4953-BC84-1A1C845FAD86}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1322,7 +463,7 @@
             <xdr:cNvPr id="4" name="CuadroTexto 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11D6FEB-CCE4-40F3-8190-C017B3854272}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B11D6FEB-CCE4-40F3-8190-C017B3854272}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,7 +622,7 @@
             <xdr:cNvPr id="5" name="CuadroTexto 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0D48CE-31B6-4502-962C-BB930ADBF1F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D0D48CE-31B6-4502-962C-BB930ADBF1F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1625,42 +766,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C366B0-7B07-45DA-9DB9-51BEBB865D91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1679,7 +784,7 @@
         <xdr:cNvPr id="6" name="CuadroTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9895E28-2039-47B3-9A91-684158632F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9895E28-2039-47B3-9A91-684158632F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +842,7 @@
         <xdr:cNvPr id="7" name="CuadroTexto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0829A63F-E04F-42A6-93C3-9FB6777250B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0829A63F-E04F-42A6-93C3-9FB6777250B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +905,7 @@
             <xdr:cNvPr id="9" name="CuadroTexto 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED35E415-A7E0-483B-B7A8-E76997B9BCA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED35E415-A7E0-483B-B7A8-E76997B9BCA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2044,7 +1149,7 @@
             <xdr:cNvPr id="5" name="CuadroTexto 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97740BC-FA72-4103-909C-2A5CD38A4720}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D97740BC-FA72-4103-909C-2A5CD38A4720}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2259,32 +1364,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35AD6CD1-EDD1-4130-A806-A439A8D7D1AC}" name="Tabla1" displayName="Tabla1" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{35AD6CD1-EDD1-4130-A806-A439A8D7D1AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I12" totalsRowShown="0">
+  <autoFilter ref="A1:I12"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4E988EC8-B9AE-4439-AD28-2F78B173EE1B}" name="Iteracion"/>
-    <tableColumn id="2" xr3:uid="{55CA6A90-6615-4E57-B09F-B3D91A3181EC}" name="Xi" dataDxfId="7">
+    <tableColumn id="1" name="Iteracion"/>
+    <tableColumn id="2" name="Xi" dataDxfId="7">
       <calculatedColumnFormula>IF(H1&gt;0,F1,B1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A6E7260C-B597-457D-A73B-461E6918A401}" name="Xa" dataDxfId="6">
+    <tableColumn id="3" name="Xa" dataDxfId="6">
       <calculatedColumnFormula>IF(H1&lt;0,F1,C1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{465BBA71-0E8B-4164-87CE-0470B0D1F7F2}" name="f(Xi)" dataDxfId="5">
+    <tableColumn id="4" name="f(Xi)" dataDxfId="5">
       <calculatedColumnFormula>B2^10-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D8DE1E52-ED32-4C4E-A594-ED643DC3275A}" name="f(Xa)" dataDxfId="4">
+    <tableColumn id="5" name="f(Xa)" dataDxfId="4">
       <calculatedColumnFormula>C2^10-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6A471F7B-5439-4510-A2D2-1E241E95557D}" name="Xr (Raiz)" dataDxfId="3">
+    <tableColumn id="6" name="Xr (Raiz)" dataDxfId="3">
       <calculatedColumnFormula>(B2+C2)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{610F205E-CA44-462C-84BA-4CB636B01466}" name="f(Xr)" dataDxfId="2">
+    <tableColumn id="7" name="f(Xr)" dataDxfId="2">
       <calculatedColumnFormula>F2^10-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{924756B5-98F8-460A-8A6F-AC3E6A550403}" name="f(a)*f(m)" dataDxfId="1">
+    <tableColumn id="8" name="f(a)*f(m)" dataDxfId="1">
       <calculatedColumnFormula>D2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{04E938BB-E8EF-4F45-B128-FF42220E5C2C}" name="Ea%" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="9" name="Ea%" dataDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS(F2-F1)/F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2588,11 +1693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C3EB78-B73D-495B-BE44-3534713A733B}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +1705,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2637,17 +1743,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>B2^10-2</f>
         <v>-1.9990234375</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>C2^10-2</f>
         <v>55.6650390625</v>
       </c>
@@ -2655,11 +1761,11 @@
         <f>(B2+C2)/2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>F2^10-2</f>
         <v>-1</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>D2*G2</f>
         <v>1.9990234375</v>
       </c>
@@ -2668,19 +1774,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>IF(H2&gt;0,F2,B2)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>IF(H2&lt;0,F2,C2)</f>
         <v>1.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>B3^10-2</f>
         <v>-1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3^10-2</f>
         <v>55.6650390625</v>
       </c>
@@ -2688,15 +1794,15 @@
         <f>(B3+C3)/2</f>
         <v>1.25</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>F3^10-2</f>
         <v>7.3132257461547852</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>D3*G3</f>
         <v>-7.3132257461547852</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>ABS(F3-F2)/F3</f>
         <v>0.2</v>
       </c>
@@ -2705,19 +1811,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B10" si="0">IF(H3&gt;0,F3,B3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C10" si="1">IF(H3&lt;0,F3,C3)</f>
         <v>1.25</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D10" si="2">B4^10-2</f>
         <v>-1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E10" si="3">C4^10-2</f>
         <v>7.3132257461547852</v>
       </c>
@@ -2725,15 +1831,15 @@
         <f t="shared" ref="F4:F10" si="4">(B4+C4)/2</f>
         <v>1.125</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G12" si="5">F4^10-2</f>
         <v>1.2473210254684091</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H10" si="6">D4*G4</f>
         <v>-1.2473210254684091</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I10" si="7">ABS(F4-F3)/F4</f>
         <v>0.1111111111111111</v>
       </c>
@@ -2742,19 +1848,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>1.2473210254684091</v>
       </c>
@@ -2762,15 +1868,15 @@
         <f t="shared" si="4"/>
         <v>1.0625</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="5"/>
         <v>-0.16646422873509437</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="6"/>
         <v>0.16646422873509437</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="7"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -2779,19 +1885,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>-0.16646422873509437</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>1.2473210254684091</v>
       </c>
@@ -2799,15 +1905,15 @@
         <f t="shared" si="4"/>
         <v>1.09375</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="5"/>
         <v>0.45008222911347051</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="6"/>
         <v>-7.4922591136745903E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="7"/>
         <v>2.8571428571428571E-2</v>
       </c>
@@ -2819,19 +1925,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>1.09375</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>-0.16646422873509437</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>0.45008222911347051</v>
       </c>
@@ -2839,15 +1945,15 @@
         <f t="shared" si="4"/>
         <v>1.078125</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>0.12173513190642282</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="6"/>
         <v>-2.0264544842767653E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="7"/>
         <v>1.4492753623188406E-2</v>
       </c>
@@ -2859,19 +1965,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>1.078125</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>-0.16646422873509437</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>0.12173513190642282</v>
       </c>
@@ -2879,15 +1985,15 @@
         <f t="shared" si="4"/>
         <v>1.0703125</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="5"/>
         <v>-2.7095901165207215E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="6"/>
         <v>4.5104982893485641E-3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="7"/>
         <v>7.2992700729927005E-3</v>
       </c>
@@ -2896,19 +2002,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>1.0703125</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>1.078125</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>-2.7095901165207215E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>0.12173513190642282</v>
       </c>
@@ -2916,15 +2022,15 @@
         <f t="shared" si="4"/>
         <v>1.07421875</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="5"/>
         <v>4.6102024984659984E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="6"/>
         <v>-1.2491759125002606E-3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="7"/>
         <v>3.6363636363636364E-3</v>
       </c>
@@ -2936,19 +2042,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>1.0703125</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>1.07421875</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>-2.7095901165207215E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="3"/>
         <v>4.6102024984659984E-2</v>
       </c>
@@ -2956,15 +2062,15 @@
         <f t="shared" si="4"/>
         <v>1.072265625</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="5"/>
         <v>9.2030777079283865E-3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="6"/>
         <v>-2.4936568398974932E-4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>1.8214936247723133E-3</v>
       </c>
@@ -2973,19 +2079,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>IF(H10&gt;0,F10,B10)</f>
         <v>1.0703125</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>IF(H10&lt;0,F10,C10)</f>
         <v>1.072265625</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>B11^10-2</f>
         <v>-2.7095901165207215E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>C11^10-2</f>
         <v>9.2030777079283865E-3</v>
       </c>
@@ -2993,57 +2099,665 @@
         <f>(B11+C11)/2</f>
         <v>1.0712890625</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f>F11^10-2</f>
         <v>-9.0208622343559419E-3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>D11*G11</f>
         <v>2.4442839152705891E-4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f>ABS(F11-F10)/F11</f>
         <v>9.1157702825888785E-4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f t="shared" ref="B12" si="8">IF(H11&gt;0,F11,B11)</f>
         <v>1.0712890625</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" ref="C12" si="9">IF(H11&lt;0,F11,C11)</f>
         <v>1.072265625</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" ref="D12" si="10">B12^10-2</f>
         <v>-9.0208622343559419E-3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" ref="E12" si="11">C12^10-2</f>
         <v>9.2030777079283865E-3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" ref="F12" si="12">(B12+C12)/2</f>
         <v>1.07177734375</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="5"/>
         <v>7.2427188968493539E-5</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" ref="H12" si="13">D12*G12</f>
         <v>-6.533556937064446E-7</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" ref="I12" si="14">ABS(F12-F11)/F12</f>
         <v>4.5558086560364467E-4</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="15">
+        <f>B18^10-2</f>
+        <v>-1.9990234375</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18^10-2</f>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F18">
+        <f>B18-((D18*(C18-B18))/(E18-D18))</f>
+        <v>0.53466671182766567</v>
+      </c>
+      <c r="G18">
+        <f>F18^10-2</f>
+        <v>-1.9980908877729717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>IF(G18&lt;0,F18,B18)</f>
+        <v>0.53466671182766567</v>
+      </c>
+      <c r="C19">
+        <f>IF(G18&gt;0,F18,C18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="15">
+        <f>B19^10-2</f>
+        <v>-1.9980908877729717</v>
+      </c>
+      <c r="E19" s="15">
+        <f>C19^10-2</f>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F19" s="16">
+        <f>B19-((D19*(C19-B19))/(E19-D19))</f>
+        <v>0.56811657222241752</v>
+      </c>
+      <c r="G19" s="18">
+        <f>F19^10-2</f>
+        <v>-1.9964975287398943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B27" si="15">IF(G19&lt;0,F19,B19)</f>
+        <v>0.56811657222241752</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C27" si="16">IF(G19&gt;0,F19,C19)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:D27" si="17">B20^10-2</f>
+        <v>-1.9964975287398943</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:E27" si="18">C20^10-2</f>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:F27" si="19">B20-((D20*(C20-B20))/(E20-D20))</f>
+        <v>0.60038249974739188</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" ref="G20:G35" si="20">F20^10-2</f>
+        <v>-1.9939147244679605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="15"/>
+        <v>0.60038249974739188</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9939147244679605</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="19"/>
+        <v>0.63149233546813921</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9899148853867079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="15"/>
+        <v>0.63149233546813921</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9899148853867079</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="19"/>
+        <v>0.66146818682839759</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9839642374332713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="15"/>
+        <v>0.66146818682839759</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9839642374332713</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="19"/>
+        <v>0.69032587792545186</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9754222830196217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="15"/>
+        <v>0.69032587792545186</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9754222830196217</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="19"/>
+        <v>0.71807458543739711</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9635501654232073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="15"/>
+        <v>0.71807458543739711</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9635501654232073</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="19"/>
+        <v>0.7447167399250012</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9475299882677042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="15"/>
+        <v>0.7447167399250012</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9475299882677042</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="19"/>
+        <v>0.77024826582061745</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.9264966230983933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="15"/>
+        <v>0.77024826582061745</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="17"/>
+        <v>-1.9264966230983933</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="18"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="19"/>
+        <v>0.79465921848684984</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.8995825339471026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B35" si="21">IF(G27&lt;0,F27,B27)</f>
+        <v>0.79465921848684984</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C35" si="22">IF(G27&gt;0,F27,C27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:D35" si="23">B28^10-2</f>
+        <v>-1.8995825339471026</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28:E35" si="24">C28^10-2</f>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" ref="F28:F35" si="25">B28-((D28*(C28-B28))/(E28-D28))</f>
+        <v>0.81793485188605686</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.8659745922890332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="21"/>
+        <v>0.81793485188605686</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.8659745922890332</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="25"/>
+        <v>0.8400571152673928</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.8249798118584759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="21"/>
+        <v>0.8400571152673928</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.8249798118584759</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="25"/>
+        <v>0.86100653336114519</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.7760946508246511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="21"/>
+        <v>0.86100653336114519</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.7760946508246511</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="25"/>
+        <v>0.88076437594958112</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.7190704618446309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="21"/>
+        <v>0.88076437594958112</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.7190704618446309</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="25"/>
+        <v>0.89931497609046851</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.6539664113020283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="21"/>
+        <v>0.89931497609046851</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.6539664113020283</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="25"/>
+        <v>0.91664802025454795</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.581181315819812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="21"/>
+        <v>0.91664802025454795</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.581181315819812</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="25"/>
+        <v>0.93276061676876831</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.501457704291018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="21"/>
+        <v>0.93276061676876831</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.501457704291018</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="24"/>
+        <v>55.6650390625</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="25"/>
+        <v>0.94765895741056494</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="20"/>
+        <v>-1.4158549245829795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3054,45 +2768,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A6CF9-BB60-4063-BB4A-31C68D193C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3100,17 +2816,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>B2^4-2*(B2^3)-12*(B2^2)-16*(B2)-40</f>
         <v>35</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>C2^4-2*(C2^3)-12*(C2^2)-16*(C2)-40</f>
         <v>-24</v>
       </c>
@@ -3131,19 +2847,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>IF(H2&gt;0,F2,B2)</f>
         <v>-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>IF(H2&lt;0,F2,C2)</f>
         <v>-2.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>B3^4-2*(B3^3)-12*(B3^2)-16*(B3)-40</f>
         <v>35</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3^4-2*(C3^3)-12*(C3^2)-16*(C3)-40</f>
         <v>-4.6875</v>
       </c>
@@ -3151,15 +2867,15 @@
         <f>(B3+C3)/2</f>
         <v>-2.75</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>F3^4-2*(F3^3)-12*(F3^2)-16*(F3)-40</f>
         <v>12.03515625</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>D3*G3</f>
         <v>421.23046875</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>(F3-F2)/F3</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3168,36 +2884,36 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:B11" si="0">IF(H3&gt;0,F3,B3)</f>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B8" si="0">IF(H3&gt;0,F3,B3)</f>
         <v>-2.75</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C11" si="1">IF(H3&lt;0,F3,C3)</f>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C8" si="1">IF(H3&lt;0,F3,C3)</f>
         <v>-2.5</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="2">B4^4-2*(B4^3)-12*(B4^2)-16*(B4)-40</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D8" si="2">B4^4-2*(B4^3)-12*(B4^2)-16*(B4)-40</f>
         <v>12.03515625</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E11" si="3">C4^4-2*(C4^3)-12*(C4^2)-16*(C4)-40</f>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E8" si="3">C4^4-2*(C4^3)-12*(C4^2)-16*(C4)-40</f>
         <v>-4.6875</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F11" si="4">(B4+C4)/2</f>
+        <f t="shared" ref="F4:F7" si="4">(B4+C4)/2</f>
         <v>-2.625</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="5">F4^4-2*(F4^3)-12*(F4^2)-16*(F4)-40</f>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G8" si="5">F4^4-2*(F4^3)-12*(F4^2)-16*(F4)-40</f>
         <v>2.968994140625</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H11" si="6">D4*G4</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H8" si="6">D4*G4</f>
         <v>35.732308387756348</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I11" si="7">(F4-F3)/F4</f>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I8" si="7">(F4-F3)/F4</f>
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
@@ -3205,19 +2921,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>-2.625</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>2.968994140625</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>-4.6875</v>
       </c>
@@ -3225,15 +2941,15 @@
         <f t="shared" si="4"/>
         <v>-2.5625</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="5"/>
         <v>-1.0263519287109375</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="6"/>
         <v>-3.0472328625619411</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="7"/>
         <v>-2.4390243902439025E-2</v>
       </c>
@@ -3242,19 +2958,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>-2.625</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>-2.5625</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>2.968994140625</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>-1.0263519287109375</v>
       </c>
@@ -3262,15 +2978,15 @@
         <f t="shared" si="4"/>
         <v>-2.59375</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="5"/>
         <v>0.92842197418212891</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="6"/>
         <v>2.7564794013742357</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="7"/>
         <v>1.2048192771084338E-2</v>
       </c>
@@ -3282,19 +2998,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>-2.59375</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>-2.5625</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>0.92842197418212891</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>-1.0263519287109375</v>
       </c>
@@ -3302,15 +3018,15 @@
         <f t="shared" si="4"/>
         <v>-2.578125</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>-5.9548318386077881E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="6"/>
         <v>-5.528596731522839E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="7"/>
         <v>-6.0606060606060606E-3</v>
       </c>
@@ -3319,38 +3035,38 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>-2.59375</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f t="shared" si="1"/>
         <v>-2.578125</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="2"/>
         <v>0.92842197418212891</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="3"/>
         <v>-5.9548318386077881E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>(B8+C8)/2</f>
         <v>-2.5859375</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f t="shared" si="5"/>
         <v>0.43177336826920509</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="6"/>
         <v>0.40086788296776277</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="shared" si="7"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -3360,82 +3076,240 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f>B13^4-2*(B13^3)-12*(B13^2)-16*(B13)-40</f>
+        <v>35</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C13^4-2*(C13^3)-12*(C13^2)-16*(C13)-40</f>
+        <v>-24</v>
+      </c>
+      <c r="F13">
+        <f>B13-((D13*(C13-B13))/(E13-D13))</f>
+        <v>-2.406779661016949</v>
+      </c>
+      <c r="G13" s="3">
+        <f>F13^4-2*(F13^3)-12*(F13^2)-16*(F13)-40</f>
+        <v>-9.565538238895428</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f>IF(G13&lt;0,F13,B13)</f>
+        <v>-2.406779661016949</v>
+      </c>
+      <c r="C14">
+        <f>IF(G13&gt;0,F13,C13)</f>
+        <v>-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>B14^4-2*(B14^3)-12*(B14^2)-16*(B14)-40</f>
+        <v>-9.565538238895428</v>
+      </c>
+      <c r="E14" s="3">
+        <f>C14^4-2*(C14^3)-12*(C14^2)-16*(C14)-40</f>
+        <v>-24</v>
+      </c>
+      <c r="F14" s="16">
+        <f>B14-((D14*(C14-B14))/(E14-D14))</f>
+        <v>-2.6763474818793451</v>
+      </c>
+      <c r="G14" s="3">
+        <f>F14^4-2*(F14^3)-12*(F14^2)-16*(F14)-40</f>
+        <v>6.5142222567416184</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B22" si="8">IF(G14&lt;0,F14,B14)</f>
+        <v>-2.406779661016949</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C22" si="9">IF(G14&gt;0,F14,C14)</f>
+        <v>-2.6763474818793451</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:D22" si="10">B15^4-2*(B15^3)-12*(B15^2)-16*(B15)-40</f>
+        <v>-9.565538238895428</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:E22" si="11">C15^4-2*(C15^3)-12*(C15^2)-16*(C15)-40</f>
+        <v>6.5142222567416184</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" ref="F15:F22" si="12">B15-((D15*(C15-B15))/(E15-D15))</f>
+        <v>-2.567140339220745</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15:G22" si="13">F15^4-2*(F15^3)-12*(F15^2)-16*(F15)-40</f>
+        <v>-0.741421881631112</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="8"/>
+        <v>-2.567140339220745</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="9"/>
+        <v>-2.6763474818793451</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.741421881631112</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="11"/>
+        <v>6.5142222567416184</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="12"/>
+        <v>-2.5782997295730476</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="13"/>
+        <v>-4.8617702184586165E-2</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="8"/>
+        <v>-2.5782997295730476</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="9"/>
+        <v>-2.6763474818793451</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="10"/>
+        <v>-4.8617702184586165E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="11"/>
+        <v>6.5142222567416184</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="12"/>
+        <v>-2.5790260700676093</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.1513975531538563E-3</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:G11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA9C8C0-4AD1-4319-8748-AB5C7278FD5F}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3443,17 +3317,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>(2*2.71828^B2^2)-(5*B2)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>(2*2.71828^C2^2)-(5*C2)</f>
         <v>32.670992782911114</v>
       </c>
@@ -3461,11 +3335,11 @@
         <f>(B2+C2)/2</f>
         <v>0.75</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>(2*2.71828^F2^2)-(5*F2)</f>
         <v>5.2133690968196884</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>D2*G2</f>
         <v>10.426738193639377</v>
       </c>
@@ -3474,19 +3348,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>IF(H2&gt;0,F2,B2)</f>
         <v>0.75</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>IF(H2&lt;0,F2,C2)</f>
         <v>1.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>(2*2.71828^B3^2)-(5*B3)</f>
         <v>5.2133690968196884</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>(2*2.71828^C3^2)-(5*C3)</f>
         <v>32.670992782911114</v>
       </c>
@@ -3494,15 +3368,15 @@
         <f>(B3+C3)/2</f>
         <v>1.125</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>(2*2.71828^F3^2)-(5*F3)</f>
         <v>13.350442953957948</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>D3*G3</f>
         <v>69.600786725018523</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>ABS(F3-F2)/F3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3511,19 +3385,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B12" si="0">IF(H3&gt;0,F3,B3)</f>
         <v>1.125</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C12" si="1">IF(H3&lt;0,F3,C3)</f>
         <v>1.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D12" si="2">(2*2.71828^B4^2)-(5*B4)</f>
         <v>13.350442953957948</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E12" si="3">(2*2.71828^C4^2)-(5*C4)</f>
         <v>32.670992782911114</v>
       </c>
@@ -3531,15 +3405,15 @@
         <f t="shared" ref="F4:F12" si="4">(B4+C4)/2</f>
         <v>1.3125</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G12" si="5">(2*2.71828^F4^2)-(5*F4)</f>
         <v>21.046599622334405</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H12" si="6">D4*G4</f>
         <v>280.98142763276837</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I12" si="7">ABS(F4-F3)/F4</f>
         <v>0.14285714285714285</v>
       </c>
@@ -3551,19 +3425,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>1.3125</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>21.046599622334405</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3571,15 +3445,15 @@
         <f t="shared" si="4"/>
         <v>1.40625</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="5"/>
         <v>26.271676923492315</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="6"/>
         <v>552.92946561606482</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="7"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -3588,19 +3462,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>1.40625</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>26.271676923492315</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3608,15 +3482,15 @@
         <f t="shared" si="4"/>
         <v>1.453125</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="5"/>
         <v>29.310482462296015</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="6"/>
         <v>770.03552572112847</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="7"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -3631,19 +3505,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>1.453125</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>29.310482462296015</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3651,15 +3525,15 @@
         <f t="shared" si="4"/>
         <v>1.4765625</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="5"/>
         <v>30.948617800666774</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="6"/>
         <v>907.11891927874581</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="7"/>
         <v>1.5873015873015872E-2</v>
       </c>
@@ -3668,19 +3542,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>1.4765625</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>30.948617800666774</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3688,15 +3562,15 @@
         <f t="shared" si="4"/>
         <v>1.48828125</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="5"/>
         <v>31.799027106000857</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="6"/>
         <v>984.13593633666335</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="7"/>
         <v>7.874015748031496E-3</v>
       </c>
@@ -3712,19 +3586,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>1.48828125</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>31.799027106000857</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3732,15 +3606,15 @@
         <f t="shared" si="4"/>
         <v>1.494140625</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="5"/>
         <v>32.232283729167719</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="6"/>
         <v>1024.9552639921146</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="7"/>
         <v>3.9215686274509803E-3</v>
       </c>
@@ -3749,19 +3623,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>1.494140625</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>32.232283729167719</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3769,15 +3643,15 @@
         <f t="shared" si="4"/>
         <v>1.4970703125</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="5"/>
         <v>32.450952702902249</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="6"/>
         <v>1045.9683148017473</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="7"/>
         <v>1.9569471624266144E-3</v>
       </c>
@@ -3786,19 +3660,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>1.4970703125</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>32.450952702902249</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
@@ -3806,70 +3680,296 @@
         <f t="shared" si="4"/>
         <v>1.49853515625</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="5"/>
         <v>32.560800852141213</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="6"/>
         <v>1056.6290084214538</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="7"/>
         <v>9.7751710654936461E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>1.49853515625</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="2"/>
         <v>32.560800852141213</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="3"/>
         <v>32.670992782911114</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
         <v>1.499267578125</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="5"/>
         <v>32.615853781863507</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="6"/>
         <v>1061.9983196138144</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" si="7"/>
         <v>4.8851978505129456E-4</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="3">
+        <f>(2*2.71828^B16^2)-(5*B16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <f>(2*2.71828^C16^2)-(5*C16)</f>
+        <v>32.670992782911114</v>
+      </c>
+      <c r="F16">
+        <f>B16-((D16*(C16-B16))/(E16-D16))</f>
+        <v>-9.781228867399111E-2</v>
+      </c>
+      <c r="G16">
+        <f>(2*2.71828^F16^2)-(5*F16)</f>
+        <v>2.1337034490374398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f>IF(G16&lt;0,F16,B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>IF(G16&gt;0,F16,C16)</f>
+        <v>-9.781228867399111E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(2*2.71828^B17^2)-(5*B17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <f>(2*2.71828^C17^2)-(5*C17)</f>
+        <v>2.1337034490374398</v>
+      </c>
+      <c r="F17" s="16">
+        <f>B17-((D17*(C17-B17))/(E17-D17))</f>
+        <v>1.4631228944079311</v>
+      </c>
+      <c r="G17">
+        <f>(2*2.71828^F17^2)-(5*F17)</f>
+        <v>29.999221732085218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B38" si="8">IF(G17&lt;0,F17,B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C38" si="9">IF(G17&gt;0,F17,C17)</f>
+        <v>1.4631228944079311</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D38" si="10">(2*2.71828^B18^2)-(5*B18)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E38" si="11">(2*2.71828^C18^2)-(5*C18)</f>
+        <v>29.999221732085218</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" ref="F18:F38" si="12">B18-((D18*(C18-B18))/(E18-D18))</f>
+        <v>-0.10451168310376935</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G44" si="13">(2*2.71828^F18^2)-(5*F18)</f>
+        <v>2.1453111969489722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="9"/>
+        <v>-0.10451168310376935</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1453111969489722</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="12"/>
+        <v>1.4384532685457114</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="13"/>
+        <v>28.32616599423207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="9"/>
+        <v>1.4384532685457114</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="11"/>
+        <v>28.32616599423207</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="12"/>
+        <v>-0.10927935870805261</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="13"/>
+        <v>2.1537496063721289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="9"/>
+        <v>-0.10927935870805261</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1537496063721289</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="12"/>
+        <v>1.4215237526339755</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="13"/>
+        <v>27.228326539487536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="9"/>
+        <v>1.4215237526339755</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="11"/>
+        <v>27.228326539487536</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="12"/>
+        <v>-0.1126926711059489</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="13"/>
+        <v>2.1598807496184333</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D20088-5198-4121-B9B0-E277E33C430B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>